--- a/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H2">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I2">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J2">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.969549353884781</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N2">
-        <v>0.969549353884781</v>
+        <v>2.222197</v>
       </c>
       <c r="O2">
-        <v>0.2768928373407342</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P2">
-        <v>0.2768928373407342</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q2">
-        <v>0.08738961688561873</v>
+        <v>0.07307768907733334</v>
       </c>
       <c r="R2">
-        <v>0.08738961688561873</v>
+        <v>0.657699201696</v>
       </c>
       <c r="S2">
-        <v>0.002986086845259776</v>
+        <v>0.001265279761167781</v>
       </c>
       <c r="T2">
-        <v>0.002986086845259776</v>
+        <v>0.001950049961698009</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H3">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I3">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J3">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.805860629273945</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N3">
-        <v>0.805860629273945</v>
+        <v>3.241766</v>
       </c>
       <c r="O3">
-        <v>0.2301451032345995</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P3">
-        <v>0.2301451032345995</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q3">
-        <v>0.07263565425863064</v>
+        <v>0.1066065554986667</v>
       </c>
       <c r="R3">
-        <v>0.07263565425863064</v>
+        <v>0.9594589994880001</v>
       </c>
       <c r="S3">
-        <v>0.002481946704977804</v>
+        <v>0.001845804359488305</v>
       </c>
       <c r="T3">
-        <v>0.002481946704977804</v>
+        <v>0.002844754836827656</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H4">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I4">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J4">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.53263119559408</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N4">
-        <v>1.53263119559408</v>
+        <v>4.236167</v>
       </c>
       <c r="O4">
-        <v>0.4377029376014604</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P4">
-        <v>0.4377029376014604</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q4">
-        <v>0.1381425839471304</v>
+        <v>0.1393077638506667</v>
       </c>
       <c r="R4">
-        <v>0.1381425839471304</v>
+        <v>1.253769874656</v>
       </c>
       <c r="S4">
-        <v>0.004720306226249223</v>
+        <v>0.002411998742697805</v>
       </c>
       <c r="T4">
-        <v>0.004720306226249223</v>
+        <v>0.003717373975437987</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09013426344462699</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H5">
-        <v>0.09013426344462699</v>
+        <v>0.295968</v>
       </c>
       <c r="I5">
-        <v>0.01078426901157145</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J5">
-        <v>0.01078426901157145</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.19349162793258</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N5">
-        <v>0.19349162793258</v>
+        <v>5.739155</v>
       </c>
       <c r="O5">
-        <v>0.05525912182320596</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P5">
-        <v>0.05525912182320596</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q5">
-        <v>0.01744022536640491</v>
+        <v>0.1887340252266667</v>
       </c>
       <c r="R5">
-        <v>0.01744022536640491</v>
+        <v>1.69860622704</v>
       </c>
       <c r="S5">
-        <v>0.000595929235084652</v>
+        <v>0.003267773589697437</v>
       </c>
       <c r="T5">
-        <v>0.000595929235084652</v>
+        <v>0.005036294706512939</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -779,55 +779,55 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.18511164293208</v>
+        <v>0.09865600000000001</v>
       </c>
       <c r="H6">
-        <v>0.18511164293208</v>
+        <v>0.295968</v>
       </c>
       <c r="I6">
-        <v>0.02214800097390169</v>
+        <v>0.01009304870291239</v>
       </c>
       <c r="J6">
-        <v>0.02214800097390169</v>
+        <v>0.01488643315542961</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.969549353884781</v>
+        <v>0.762342</v>
       </c>
       <c r="N6">
-        <v>0.969549353884781</v>
+        <v>1.524684</v>
       </c>
       <c r="O6">
-        <v>0.2768928373407342</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P6">
-        <v>0.2768928373407342</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q6">
-        <v>0.1794748738013484</v>
+        <v>0.07520961235200001</v>
       </c>
       <c r="R6">
-        <v>0.1794748738013484</v>
+        <v>0.451257674112</v>
       </c>
       <c r="S6">
-        <v>0.006132622831088984</v>
+        <v>0.001302192249861063</v>
       </c>
       <c r="T6">
-        <v>0.006132622831088984</v>
+        <v>0.001337959674953016</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H7">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I7">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J7">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.805860629273945</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N7">
-        <v>0.805860629273945</v>
+        <v>2.222197</v>
       </c>
       <c r="O7">
-        <v>0.2301451032345995</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P7">
-        <v>0.2301451032345995</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q7">
-        <v>0.1491741850591798</v>
+        <v>0.1731644543142222</v>
       </c>
       <c r="R7">
-        <v>0.1491741850591798</v>
+        <v>1.558480088828</v>
       </c>
       <c r="S7">
-        <v>0.005097253970578614</v>
+        <v>0.002998199343243975</v>
       </c>
       <c r="T7">
-        <v>0.005097253970578614</v>
+        <v>0.004620826708758698</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H8">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I8">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J8">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.53263119559408</v>
+        <v>1.080588666666667</v>
       </c>
       <c r="N8">
-        <v>1.53263119559408</v>
+        <v>3.241766</v>
       </c>
       <c r="O8">
-        <v>0.4377029376014604</v>
+        <v>0.1828787726899297</v>
       </c>
       <c r="P8">
-        <v>0.4377029376014604</v>
+        <v>0.1910971424199137</v>
       </c>
       <c r="Q8">
-        <v>0.2837078786253782</v>
+        <v>0.2526142553537778</v>
       </c>
       <c r="R8">
-        <v>0.2837078786253782</v>
+        <v>2.273528298184</v>
       </c>
       <c r="S8">
-        <v>0.009694245088276775</v>
+        <v>0.004373806954176722</v>
       </c>
       <c r="T8">
-        <v>0.009694245088276775</v>
+        <v>0.006740914021729778</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.18511164293208</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H9">
-        <v>0.18511164293208</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I9">
-        <v>0.02214800097390169</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J9">
-        <v>0.02214800097390169</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.19349162793258</v>
+        <v>1.412055666666667</v>
       </c>
       <c r="N9">
-        <v>0.19349162793258</v>
+        <v>4.236167</v>
       </c>
       <c r="O9">
-        <v>0.05525912182320596</v>
+        <v>0.2389762314336017</v>
       </c>
       <c r="P9">
-        <v>0.05525912182320596</v>
+        <v>0.2497155589001607</v>
       </c>
       <c r="Q9">
-        <v>0.03581755314020263</v>
+        <v>0.3301028427897778</v>
       </c>
       <c r="R9">
-        <v>0.03581755314020263</v>
+        <v>2.970925585108</v>
       </c>
       <c r="S9">
-        <v>0.001223879083957318</v>
+        <v>0.005715457773218037</v>
       </c>
       <c r="T9">
-        <v>0.001223879083957318</v>
+        <v>0.008808667105734642</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
@@ -1027,60 +1027,60 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H10">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I10">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J10">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.969549353884781</v>
+        <v>1.913051666666667</v>
       </c>
       <c r="N10">
-        <v>0.969549353884781</v>
+        <v>5.739155</v>
       </c>
       <c r="O10">
-        <v>0.2768928373407342</v>
+        <v>0.3237647697820488</v>
       </c>
       <c r="P10">
-        <v>0.2768928373407342</v>
+        <v>0.3383144003623209</v>
       </c>
       <c r="Q10">
-        <v>7.836569946255418</v>
+        <v>0.4472230156911112</v>
       </c>
       <c r="R10">
-        <v>7.836569946255418</v>
+        <v>4.025007141220001</v>
       </c>
       <c r="S10">
-        <v>0.2677741276643855</v>
+        <v>0.007743296724716746</v>
       </c>
       <c r="T10">
-        <v>0.2677741276643855</v>
+        <v>0.01193397376997</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
@@ -1089,55 +1089,55 @@
         <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>8.082693175809901</v>
+        <v>0.2337746666666667</v>
       </c>
       <c r="H11">
-        <v>8.082693175809901</v>
+        <v>0.7013240000000001</v>
       </c>
       <c r="I11">
-        <v>0.9670677300145268</v>
+        <v>0.02391642775070728</v>
       </c>
       <c r="J11">
-        <v>0.9670677300145268</v>
+        <v>0.03527480283780177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.805860629273945</v>
+        <v>0.762342</v>
       </c>
       <c r="N11">
-        <v>0.805860629273945</v>
+        <v>1.524684</v>
       </c>
       <c r="O11">
-        <v>0.2301451032345995</v>
+        <v>0.1290187225080277</v>
       </c>
       <c r="P11">
-        <v>0.2301451032345995</v>
+        <v>0.0898777874446717</v>
       </c>
       <c r="Q11">
-        <v>6.513524208886388</v>
+        <v>0.178216246936</v>
       </c>
       <c r="R11">
-        <v>6.513524208886388</v>
+        <v>1.069297481616</v>
       </c>
       <c r="S11">
-        <v>0.2225659025590431</v>
+        <v>0.003085666955351796</v>
       </c>
       <c r="T11">
-        <v>0.2225659025590431</v>
+        <v>0.003170421231608649</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>8.082693175809901</v>
+        <v>9.4422175</v>
       </c>
       <c r="H12">
-        <v>8.082693175809901</v>
+        <v>18.884435</v>
       </c>
       <c r="I12">
-        <v>0.9670677300145268</v>
+        <v>0.9659905235463803</v>
       </c>
       <c r="J12">
-        <v>0.9670677300145268</v>
+        <v>0.9498387640067686</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.53263119559408</v>
+        <v>0.7407323333333333</v>
       </c>
       <c r="N12">
-        <v>1.53263119559408</v>
+        <v>2.222197</v>
       </c>
       <c r="O12">
-        <v>0.4377029376014604</v>
+        <v>0.125361503586392</v>
       </c>
       <c r="P12">
-        <v>0.4377029376014604</v>
+        <v>0.1309951108729331</v>
       </c>
       <c r="Q12">
-        <v>12.38778770566164</v>
+        <v>6.994155800615833</v>
       </c>
       <c r="R12">
-        <v>12.38778770566164</v>
+        <v>41.964934803695</v>
       </c>
       <c r="S12">
-        <v>0.4232883862869344</v>
+        <v>0.1210980244819802</v>
       </c>
       <c r="T12">
-        <v>0.4232883862869344</v>
+        <v>0.1244242342024764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,55 +1213,241 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>9.4422175</v>
+      </c>
+      <c r="H13">
+        <v>18.884435</v>
+      </c>
+      <c r="I13">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J13">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.080588666666667</v>
+      </c>
+      <c r="N13">
+        <v>3.241766</v>
+      </c>
+      <c r="O13">
+        <v>0.1828787726899297</v>
+      </c>
+      <c r="P13">
+        <v>0.1910971424199137</v>
+      </c>
+      <c r="Q13">
+        <v>10.20315321870167</v>
+      </c>
+      <c r="R13">
+        <v>61.21891931221001</v>
+      </c>
+      <c r="S13">
+        <v>0.1766591613762646</v>
+      </c>
+      <c r="T13">
+        <v>0.1815114735613562</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="H13">
-        <v>8.082693175809901</v>
-      </c>
-      <c r="I13">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="J13">
-        <v>0.9670677300145268</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.19349162793258</v>
-      </c>
-      <c r="N13">
-        <v>0.19349162793258</v>
-      </c>
-      <c r="O13">
-        <v>0.05525912182320596</v>
-      </c>
-      <c r="P13">
-        <v>0.05525912182320596</v>
-      </c>
-      <c r="Q13">
-        <v>1.563933460667013</v>
-      </c>
-      <c r="R13">
-        <v>1.563933460667013</v>
-      </c>
-      <c r="S13">
-        <v>0.05343931350416399</v>
-      </c>
-      <c r="T13">
-        <v>0.05343931350416399</v>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>9.4422175</v>
+      </c>
+      <c r="H14">
+        <v>18.884435</v>
+      </c>
+      <c r="I14">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J14">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.412055666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.236167</v>
+      </c>
+      <c r="O14">
+        <v>0.2389762314336017</v>
+      </c>
+      <c r="P14">
+        <v>0.2497155589001607</v>
+      </c>
+      <c r="Q14">
+        <v>13.33293672677417</v>
+      </c>
+      <c r="R14">
+        <v>79.997620360645</v>
+      </c>
+      <c r="S14">
+        <v>0.2308487749176858</v>
+      </c>
+      <c r="T14">
+        <v>0.2371895178189881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>9.4422175</v>
+      </c>
+      <c r="H15">
+        <v>18.884435</v>
+      </c>
+      <c r="I15">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J15">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.913051666666667</v>
+      </c>
+      <c r="N15">
+        <v>5.739155</v>
+      </c>
+      <c r="O15">
+        <v>0.3237647697820488</v>
+      </c>
+      <c r="P15">
+        <v>0.3383144003623209</v>
+      </c>
+      <c r="Q15">
+        <v>18.06344992540417</v>
+      </c>
+      <c r="R15">
+        <v>108.380699552425</v>
+      </c>
+      <c r="S15">
+        <v>0.3127536994676346</v>
+      </c>
+      <c r="T15">
+        <v>0.3213441318858379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>9.4422175</v>
+      </c>
+      <c r="H16">
+        <v>18.884435</v>
+      </c>
+      <c r="I16">
+        <v>0.9659905235463803</v>
+      </c>
+      <c r="J16">
+        <v>0.9498387640067686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.762342</v>
+      </c>
+      <c r="N16">
+        <v>1.524684</v>
+      </c>
+      <c r="O16">
+        <v>0.1290187225080277</v>
+      </c>
+      <c r="P16">
+        <v>0.0898777874446717</v>
+      </c>
+      <c r="Q16">
+        <v>7.198198973385</v>
+      </c>
+      <c r="R16">
+        <v>28.79279589354</v>
+      </c>
+      <c r="S16">
+        <v>0.1246308633028149</v>
+      </c>
+      <c r="T16">
+        <v>0.08536940653811004</v>
       </c>
     </row>
   </sheetData>
